--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D1733E-98D8-A944-924A-96D0F7FFEE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A6F088-79FD-AF4D-8F3E-D9553DEF480C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Virtual City</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>box set</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577EAA4-EE1A-D34A-B6C1-9D2D6CD74EB7}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,7 +518,7 @@
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +534,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -536,8 +554,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -550,8 +571,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -564,8 +588,11 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -578,8 +605,11 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -592,8 +622,11 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -606,8 +639,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -620,8 +656,11 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -634,8 +673,11 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -647,6 +689,9 @@
       </c>
       <c r="E10" t="s">
         <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A6F088-79FD-AF4D-8F3E-D9553DEF480C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0820CE8E-7869-9A41-B89E-F9C9B89C91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>scenario</t>
+  </si>
+  <si>
+    <t>メタルヘッド・ハンドブック</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +614,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>

--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0820CE8E-7869-9A41-B89E-F9C9B89C91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21263244-77A2-1D40-90C5-53B63233C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -147,6 +147,27 @@
   </si>
   <si>
     <t>メタルヘッド・ハンドブック</t>
+  </si>
+  <si>
+    <t>metalhead_maximum.png</t>
+  </si>
+  <si>
+    <t>メタルヘッド・マキシマム</t>
+  </si>
+  <si>
+    <t>Metal Head Maximum</t>
+  </si>
+  <si>
+    <t>Game Field</t>
+  </si>
+  <si>
+    <t>mind_crime.jpg</t>
+  </si>
+  <si>
+    <t>マインドクライム</t>
+  </si>
+  <si>
+    <t>Mind Crime</t>
   </si>
 </sst>
 </file>
@@ -507,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577EAA4-EE1A-D34A-B6C1-9D2D6CD74EB7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,6 +718,46 @@
         <v>35</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21263244-77A2-1D40-90C5-53B63233C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854F7B1-70CB-154D-930A-902740B55EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>year</t>
   </si>
@@ -168,6 +168,48 @@
   </si>
   <si>
     <t>Mind Crime</t>
+  </si>
+  <si>
+    <t>d20対応ルールブック メタルヘッド/d20</t>
+  </si>
+  <si>
+    <t>Metal Head d20 edition</t>
+  </si>
+  <si>
+    <t>metalhead_d20.jpg</t>
+  </si>
+  <si>
+    <t>メタルヘッド エクストリーム</t>
+  </si>
+  <si>
+    <t>Metal Head Extreme</t>
+  </si>
+  <si>
+    <t>Shinkigensha</t>
+  </si>
+  <si>
+    <t>metalhead_extreme.jpg</t>
+  </si>
+  <si>
+    <t>星屑のリグレット</t>
+  </si>
+  <si>
+    <t>Stardust Regret</t>
+  </si>
+  <si>
+    <t>stardust_regret.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>endless_horizon.jpg</t>
+  </si>
+  <si>
+    <t>エンドレスホライゾン</t>
+  </si>
+  <si>
+    <t>Endless Horizon</t>
   </si>
 </sst>
 </file>
@@ -528,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577EAA4-EE1A-D34A-B6C1-9D2D6CD74EB7}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="39.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
@@ -758,6 +800,86 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2009</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854F7B1-70CB-154D-930A-902740B55EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50504AD7-2BB3-5C49-9B6F-BD8AD7479389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>year</t>
   </si>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>Endless Horizon</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>158-6</t>
+  </si>
+  <si>
+    <t>158-1</t>
+  </si>
+  <si>
+    <t>158-4</t>
+  </si>
+  <si>
+    <t>158-5</t>
+  </si>
+  <si>
+    <t>158-9</t>
+  </si>
+  <si>
+    <t>158-3</t>
+  </si>
+  <si>
+    <t>158-2</t>
   </si>
 </sst>
 </file>
@@ -570,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577EAA4-EE1A-D34A-B6C1-9D2D6CD74EB7}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +608,7 @@
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +627,11 @@
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -623,42 +650,60 @@
       <c r="F2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1990</v>
+      </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1991</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1991</v>
+      </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -674,93 +719,123 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1991</v>
+      </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1992</v>
+      </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1993</v>
+      </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1994</v>
+      </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1994</v>
+      </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -780,7 +855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -800,7 +875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -820,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2008</v>
       </c>
@@ -840,7 +915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2009</v>
       </c>
@@ -860,7 +935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2010</v>
       </c>
@@ -881,6 +956,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/metalhead/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50504AD7-2BB3-5C49-9B6F-BD8AD7479389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C903F5C-A76F-4D4A-A0EC-8DCDE3BCF29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>year</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>158-2</t>
+  </si>
+  <si>
+    <t>metalhead_alternate.jpg</t>
   </si>
 </sst>
 </file>
@@ -594,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5577EAA4-EE1A-D34A-B6C1-9D2D6CD74EB7}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,45 +662,45 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,22 +708,22 @@
         <v>1991</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -728,88 +731,91 @@
         <v>1991</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -817,82 +823,82 @@
         <v>1994</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -900,16 +906,16 @@
         <v>2008</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
@@ -917,47 +923,67 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
       </c>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metalhead/checklist.xlsx
+++ b/metalhead/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/metalhead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C903F5C-A76F-4D4A-A0EC-8DCDE3BCF29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C040DDCD-FDDA-7249-B001-3C3D9F16C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16340" xr2:uid="{AA506737-A005-B24A-B9DB-FD3A738B7EAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>year</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>metalhead_alternate.jpg</t>
+  </si>
+  <si>
+    <t>Metal Head (alternate cover)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
